--- a/diploma/projects/Diploma_first/Diploma_first/samples/faces/resolution_tests/resolution_test.xlsx
+++ b/diploma/projects/Diploma_first/Diploma_first/samples/faces/resolution_tests/resolution_test.xlsx
@@ -4,13 +4,13 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="164011"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="22260" windowHeight="12645" tabRatio="785"/>
   </bookViews>
   <sheets>
     <sheet name="Main" sheetId="1" r:id="rId1"/>
-    <sheet name="Лист2" sheetId="2" r:id="rId2"/>
-    <sheet name="Лист3" sheetId="3" r:id="rId3"/>
-    <sheet name="Лист4" sheetId="4" r:id="rId4"/>
+    <sheet name="Высокое качество" sheetId="2" r:id="rId2"/>
+    <sheet name="Среднее качество" sheetId="3" r:id="rId3"/>
+    <sheet name="Плохое качество" sheetId="4" r:id="rId4"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -137,7 +137,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="4">
+  <fills count="5">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -156,6 +156,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="1"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -169,10 +175,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -468,7 +476,7 @@
       </c>
     </row>
     <row r="2" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A2" s="2"/>
+      <c r="A2" s="3"/>
       <c r="B2" t="s">
         <v>1</v>
       </c>
@@ -517,12 +525,578 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:FZ100"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView zoomScale="25" zoomScaleNormal="25" workbookViewId="0">
+      <selection activeCell="CI45" sqref="CI45"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="221" width="2.7109375" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A1" s="2"/>
+      <c r="V1" s="4"/>
+    </row>
+    <row r="2" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A2" s="2"/>
+      <c r="V2" s="4"/>
+    </row>
+    <row r="3" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A3" s="2"/>
+      <c r="V3" s="4"/>
+    </row>
+    <row r="4" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A4" s="2"/>
+      <c r="V4" s="4"/>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A5" s="2"/>
+      <c r="V5" s="4"/>
+    </row>
+    <row r="6" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A6" s="2"/>
+      <c r="V6" s="4"/>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A7" s="2"/>
+      <c r="V7" s="4"/>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A8" s="2"/>
+      <c r="V8" s="4"/>
+    </row>
+    <row r="9" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A9" s="2"/>
+      <c r="V9" s="4"/>
+    </row>
+    <row r="10" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A10" s="2"/>
+      <c r="V10" s="4"/>
+    </row>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A11" s="2"/>
+      <c r="V11" s="4"/>
+    </row>
+    <row r="12" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A12" s="2"/>
+      <c r="V12" s="4"/>
+    </row>
+    <row r="13" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A13" s="2"/>
+      <c r="V13" s="4"/>
+    </row>
+    <row r="14" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A14" s="2"/>
+      <c r="V14" s="4"/>
+    </row>
+    <row r="15" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A15" s="2"/>
+      <c r="V15" s="4"/>
+    </row>
+    <row r="16" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A16" s="2"/>
+      <c r="V16" s="4"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A17" s="2"/>
+      <c r="V17" s="4"/>
+    </row>
+    <row r="18" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A18" s="2"/>
+      <c r="V18" s="4"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A19" s="2"/>
+      <c r="V19" s="4"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A20" s="2"/>
+      <c r="V20" s="4"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A21" s="2"/>
+      <c r="V21" s="4"/>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A22" s="2"/>
+      <c r="V22" s="4"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A23" s="2"/>
+      <c r="V23" s="4"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A24" s="2"/>
+      <c r="V24" s="4"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A25" s="2"/>
+      <c r="V25" s="4"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A26" s="2"/>
+      <c r="V26" s="4"/>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A27" s="2"/>
+      <c r="V27" s="4"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A28" s="2"/>
+      <c r="V28" s="4"/>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A29" s="2"/>
+      <c r="V29" s="4"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A30" s="2"/>
+      <c r="V30" s="4"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A31" s="2"/>
+      <c r="V31" s="4"/>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A32" s="2"/>
+      <c r="V32" s="4"/>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A33" s="2"/>
+      <c r="V33" s="4"/>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A34" s="2"/>
+      <c r="V34" s="4"/>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A35" s="2"/>
+      <c r="V35" s="4"/>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A36" s="2"/>
+      <c r="V36" s="4"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A37" s="2"/>
+      <c r="V37" s="4"/>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A38" s="2"/>
+      <c r="V38" s="4"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A39" s="2"/>
+      <c r="V39" s="4"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A40" s="2"/>
+      <c r="V40" s="4"/>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A41" s="2"/>
+      <c r="V41" s="4"/>
+    </row>
+    <row r="42" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A42" s="2"/>
+      <c r="V42" s="4"/>
+    </row>
+    <row r="43" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A43" s="2"/>
+      <c r="V43" s="4"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A44" s="2"/>
+      <c r="V44" s="4"/>
+    </row>
+    <row r="45" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A45" s="2"/>
+      <c r="V45" s="4"/>
+    </row>
+    <row r="46" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A46" s="2"/>
+      <c r="V46" s="4"/>
+    </row>
+    <row r="47" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A47" s="2"/>
+      <c r="V47" s="4"/>
+    </row>
+    <row r="48" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A48" s="2"/>
+      <c r="V48" s="4"/>
+    </row>
+    <row r="49" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A49" s="2"/>
+      <c r="V49" s="4"/>
+    </row>
+    <row r="50" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A50" s="2"/>
+      <c r="V50" s="4"/>
+    </row>
+    <row r="51" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A51" s="2"/>
+      <c r="V51" s="4"/>
+    </row>
+    <row r="52" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A52" s="2"/>
+      <c r="V52" s="4"/>
+    </row>
+    <row r="53" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A53" s="2"/>
+      <c r="V53" s="4"/>
+    </row>
+    <row r="54" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A54" s="2"/>
+      <c r="V54" s="4"/>
+    </row>
+    <row r="55" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A55" s="2"/>
+      <c r="V55" s="4"/>
+    </row>
+    <row r="56" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A56" s="2"/>
+      <c r="V56" s="4"/>
+    </row>
+    <row r="57" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A57" s="2"/>
+      <c r="V57" s="4"/>
+    </row>
+    <row r="58" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A58" s="2"/>
+      <c r="V58" s="4"/>
+    </row>
+    <row r="59" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A59" s="2"/>
+      <c r="V59" s="4"/>
+    </row>
+    <row r="60" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A60" s="2"/>
+      <c r="V60" s="4"/>
+    </row>
+    <row r="61" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A61" s="2"/>
+      <c r="V61" s="4"/>
+    </row>
+    <row r="62" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A62" s="2"/>
+      <c r="V62" s="4"/>
+    </row>
+    <row r="63" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A63" s="2"/>
+      <c r="V63" s="4"/>
+    </row>
+    <row r="64" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A64" s="2"/>
+      <c r="V64" s="4"/>
+    </row>
+    <row r="65" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A65" s="2"/>
+      <c r="V65" s="4"/>
+    </row>
+    <row r="66" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A66" s="2"/>
+      <c r="V66" s="4"/>
+    </row>
+    <row r="67" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A67" s="2"/>
+      <c r="V67" s="4"/>
+    </row>
+    <row r="68" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A68" s="2"/>
+      <c r="V68" s="4"/>
+    </row>
+    <row r="69" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A69" s="2"/>
+      <c r="V69" s="4"/>
+    </row>
+    <row r="70" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A70" s="2"/>
+      <c r="V70" s="4"/>
+    </row>
+    <row r="71" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A71" s="2"/>
+      <c r="V71" s="4"/>
+    </row>
+    <row r="72" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A72" s="2"/>
+      <c r="V72" s="4"/>
+    </row>
+    <row r="73" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A73" s="2"/>
+      <c r="V73" s="4"/>
+    </row>
+    <row r="74" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A74" s="2"/>
+      <c r="V74" s="4"/>
+    </row>
+    <row r="75" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A75" s="2"/>
+      <c r="V75" s="4"/>
+    </row>
+    <row r="76" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A76" s="2"/>
+      <c r="V76" s="4"/>
+    </row>
+    <row r="77" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A77" s="2"/>
+      <c r="V77" s="4"/>
+    </row>
+    <row r="78" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A78" s="2"/>
+      <c r="V78" s="4"/>
+    </row>
+    <row r="79" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A79" s="2"/>
+      <c r="V79" s="4"/>
+    </row>
+    <row r="80" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A80" s="2"/>
+      <c r="V80" s="4"/>
+    </row>
+    <row r="81" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A81" s="2"/>
+      <c r="V81" s="4"/>
+    </row>
+    <row r="82" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A82" s="2"/>
+      <c r="V82" s="4"/>
+    </row>
+    <row r="83" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A83" s="2"/>
+      <c r="V83" s="4"/>
+    </row>
+    <row r="84" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A84" s="2"/>
+      <c r="V84" s="4"/>
+    </row>
+    <row r="85" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A85" s="2"/>
+      <c r="V85" s="4"/>
+    </row>
+    <row r="86" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A86" s="2"/>
+      <c r="V86" s="4"/>
+    </row>
+    <row r="87" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A87" s="2"/>
+      <c r="V87" s="4"/>
+    </row>
+    <row r="88" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A88" s="2"/>
+      <c r="V88" s="4"/>
+    </row>
+    <row r="89" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A89" s="2"/>
+      <c r="V89" s="4"/>
+    </row>
+    <row r="90" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A90" s="2"/>
+      <c r="V90" s="4"/>
+    </row>
+    <row r="91" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A91" s="2"/>
+      <c r="V91" s="4"/>
+    </row>
+    <row r="92" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A92" s="2"/>
+      <c r="V92" s="4"/>
+    </row>
+    <row r="93" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A93" s="2"/>
+      <c r="V93" s="4"/>
+    </row>
+    <row r="94" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A94" s="2"/>
+      <c r="V94" s="4"/>
+    </row>
+    <row r="95" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A95" s="2"/>
+      <c r="V95" s="4"/>
+    </row>
+    <row r="96" spans="1:22" x14ac:dyDescent="0.25">
+      <c r="A96" s="2"/>
+      <c r="V96" s="4"/>
+    </row>
+    <row r="97" spans="1:182" x14ac:dyDescent="0.25">
+      <c r="A97" s="2"/>
+      <c r="V97" s="4"/>
+    </row>
+    <row r="98" spans="1:182" x14ac:dyDescent="0.25">
+      <c r="A98" s="2"/>
+      <c r="V98" s="4"/>
+    </row>
+    <row r="99" spans="1:182" x14ac:dyDescent="0.25">
+      <c r="A99" s="2"/>
+      <c r="V99" s="4"/>
+    </row>
+    <row r="100" spans="1:182" x14ac:dyDescent="0.25">
+      <c r="A100" s="2"/>
+      <c r="V100" s="4"/>
+      <c r="W100" s="4"/>
+      <c r="X100" s="4"/>
+      <c r="Y100" s="4"/>
+      <c r="Z100" s="4"/>
+      <c r="AA100" s="4"/>
+      <c r="AB100" s="4"/>
+      <c r="AC100" s="4"/>
+      <c r="AD100" s="4"/>
+      <c r="AE100" s="4"/>
+      <c r="AF100" s="4"/>
+      <c r="AG100" s="4"/>
+      <c r="AH100" s="4"/>
+      <c r="AI100" s="4"/>
+      <c r="AJ100" s="4"/>
+      <c r="AK100" s="4"/>
+      <c r="AL100" s="4"/>
+      <c r="AM100" s="4"/>
+      <c r="AN100" s="4"/>
+      <c r="AO100" s="4"/>
+      <c r="AP100" s="4"/>
+      <c r="AQ100" s="4"/>
+      <c r="AR100" s="4"/>
+      <c r="AS100" s="4"/>
+      <c r="AT100" s="4"/>
+      <c r="AU100" s="4"/>
+      <c r="AV100" s="4"/>
+      <c r="AW100" s="4"/>
+      <c r="AX100" s="4"/>
+      <c r="AY100" s="4"/>
+      <c r="AZ100" s="4"/>
+      <c r="BA100" s="4"/>
+      <c r="BB100" s="4"/>
+      <c r="BC100" s="4"/>
+      <c r="BD100" s="4"/>
+      <c r="BE100" s="4"/>
+      <c r="BF100" s="4"/>
+      <c r="BG100" s="4"/>
+      <c r="BH100" s="4"/>
+      <c r="BI100" s="4"/>
+      <c r="BJ100" s="4"/>
+      <c r="BK100" s="4"/>
+      <c r="BL100" s="4"/>
+      <c r="BM100" s="4"/>
+      <c r="BN100" s="4"/>
+      <c r="BO100" s="4"/>
+      <c r="BP100" s="4"/>
+      <c r="BQ100" s="4"/>
+      <c r="BR100" s="4"/>
+      <c r="BS100" s="4"/>
+      <c r="BT100" s="4"/>
+      <c r="BU100" s="4"/>
+      <c r="BV100" s="4"/>
+      <c r="BW100" s="4"/>
+      <c r="BX100" s="4"/>
+      <c r="BY100" s="4"/>
+      <c r="BZ100" s="4"/>
+      <c r="CA100" s="4"/>
+      <c r="CB100" s="4"/>
+      <c r="CC100" s="4"/>
+      <c r="CD100" s="4"/>
+      <c r="CE100" s="4"/>
+      <c r="CF100" s="4"/>
+      <c r="CG100" s="4"/>
+      <c r="CH100" s="4"/>
+      <c r="CI100" s="4"/>
+      <c r="CJ100" s="4"/>
+      <c r="CK100" s="4"/>
+      <c r="CL100" s="4"/>
+      <c r="CM100" s="4"/>
+      <c r="CN100" s="4"/>
+      <c r="CO100" s="4"/>
+      <c r="CP100" s="4"/>
+      <c r="CQ100" s="4"/>
+      <c r="CR100" s="4"/>
+      <c r="CS100" s="4"/>
+      <c r="CT100" s="4"/>
+      <c r="CU100" s="4"/>
+      <c r="CV100" s="4"/>
+      <c r="CW100" s="4"/>
+      <c r="CX100" s="4"/>
+      <c r="CY100" s="4"/>
+      <c r="CZ100" s="4"/>
+      <c r="DA100" s="4"/>
+      <c r="DB100" s="4"/>
+      <c r="DC100" s="4"/>
+      <c r="DD100" s="4"/>
+      <c r="DE100" s="4"/>
+      <c r="DF100" s="4"/>
+      <c r="DG100" s="4"/>
+      <c r="DH100" s="4"/>
+      <c r="DI100" s="4"/>
+      <c r="DJ100" s="4"/>
+      <c r="DK100" s="4"/>
+      <c r="DL100" s="4"/>
+      <c r="DM100" s="4"/>
+      <c r="DN100" s="4"/>
+      <c r="DO100" s="4"/>
+      <c r="DP100" s="4"/>
+      <c r="DQ100" s="4"/>
+      <c r="DR100" s="4"/>
+      <c r="DS100" s="4"/>
+      <c r="DT100" s="4"/>
+      <c r="DU100" s="4"/>
+      <c r="DV100" s="4"/>
+      <c r="DW100" s="4"/>
+      <c r="DX100" s="4"/>
+      <c r="DY100" s="4"/>
+      <c r="DZ100" s="4"/>
+      <c r="EA100" s="4"/>
+      <c r="EB100" s="4"/>
+      <c r="EC100" s="4"/>
+      <c r="ED100" s="4"/>
+      <c r="EE100" s="4"/>
+      <c r="EF100" s="4"/>
+      <c r="EG100" s="4"/>
+      <c r="EH100" s="4"/>
+      <c r="EI100" s="4"/>
+      <c r="EJ100" s="4"/>
+      <c r="EK100" s="4"/>
+      <c r="EL100" s="4"/>
+      <c r="EM100" s="4"/>
+      <c r="EN100" s="4"/>
+      <c r="EO100" s="4"/>
+      <c r="EP100" s="4"/>
+      <c r="EQ100" s="4"/>
+      <c r="ER100" s="4"/>
+      <c r="ES100" s="4"/>
+      <c r="ET100" s="4"/>
+      <c r="EU100" s="4"/>
+      <c r="EV100" s="4"/>
+      <c r="EW100" s="4"/>
+      <c r="EX100" s="4"/>
+      <c r="EY100" s="4"/>
+      <c r="EZ100" s="4"/>
+      <c r="FA100" s="4"/>
+      <c r="FB100" s="4"/>
+      <c r="FC100" s="4"/>
+      <c r="FD100" s="4"/>
+      <c r="FE100" s="4"/>
+      <c r="FF100" s="4"/>
+      <c r="FG100" s="4"/>
+      <c r="FH100" s="4"/>
+      <c r="FI100" s="4"/>
+      <c r="FJ100" s="4"/>
+      <c r="FK100" s="4"/>
+      <c r="FL100" s="4"/>
+      <c r="FM100" s="4"/>
+      <c r="FN100" s="4"/>
+      <c r="FO100" s="4"/>
+      <c r="FP100" s="4"/>
+      <c r="FQ100" s="4"/>
+      <c r="FR100" s="4"/>
+      <c r="FS100" s="4"/>
+      <c r="FT100" s="4"/>
+      <c r="FU100" s="4"/>
+      <c r="FV100" s="4"/>
+      <c r="FW100" s="4"/>
+      <c r="FX100" s="4"/>
+      <c r="FY100" s="4"/>
+      <c r="FZ100" s="4"/>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
